--- a/出库/枕头的出库(更新4.17).xlsx
+++ b/出库/枕头的出库(更新4.17).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
@@ -1005,7 +1005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5096,7 +5096,7 @@
         <v>33</v>
       </c>
       <c r="J107" s="23">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K107" s="23">
         <v>56</v>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="J108" s="21">
         <f t="shared" si="49"/>
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="K108" s="21">
         <f>K106-K107+1</f>
